--- a/数据整理/stocks/A股/上证主板/600990-四创电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600990-四创电子.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.85</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.28</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -566,25 +596,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004005</t>
+          <t>009459</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合A</t>
+          <t>创金合信季安鑫3个月持有期债券C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>28.63</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -594,25 +634,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004006</t>
+          <t>675053</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方民丰回报赢安混合C</t>
+          <t>西部利得合赢债券C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>28.63</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -622,25 +672,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009459</t>
+          <t>004005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信季安鑫3个月持有期债券C</t>
+          <t>东方民丰回报赢安混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>28.63</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -650,25 +710,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>675053</t>
+          <t>004006</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>西部利得合赢债券C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>28.63</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -686,17 +750,21 @@
           <t>西部利得祥逸债券C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>28.63</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600990-四创电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600990-四创电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -718,7 +719,6 @@
           <t>东方民丰回报赢安混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>28.63</t>
@@ -750,7 +750,6 @@
           <t>西部利得祥逸债券C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>28.63</t>
@@ -766,6 +765,74 @@
       </c>
       <c r="H6" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600990-四创电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600990-四创电子.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -778,7 +779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,17 +790,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -809,14 +830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -825,13 +868,117 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600990-四创电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600990-四创电子.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -909,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,17 +921,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -940,14 +961,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>014144</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -956,14 +999,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+          <t>014145</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信先进装备三个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -972,13 +1037,171 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>004005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方民丰回报赢安混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600990-四创电子.xlsx
+++ b/数据整理/stocks/A股/上证主板/600990-四创电子.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,91 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004223</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>金信多策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -548,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -599,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009459</t>
+          <t>014144</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信季安鑫3个月持有期债券C</t>
+          <t>长信先进装备三个月持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0408</t>
+          <t>0.3260</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -637,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>675053</t>
+          <t>014145</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西部利得合赢债券C</t>
+          <t>长信先进装备三个月持有混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.0705</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -690,17 +696,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -721,51 +727,25 @@
           <t>东方民丰回报赢安混合C</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28.63</t>
+          <t>28.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>675093</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西部利得祥逸债券C</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>28.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -910,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,7 +911,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -961,36 +941,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014144</t>
+          <t>009459</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长信先进装备三个月持有混合A</t>
+          <t>创金合信季安鑫3个月持有期债券C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>28.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3260</t>
+          <t>0.0408</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -999,36 +979,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014145</t>
+          <t>675053</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信先进装备三个月持有混合C</t>
+          <t>西部利得合赢债券C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>28.63</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0705</t>
+          <t>0.0282</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1052,17 +1032,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>28.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1083,25 +1063,51 @@
           <t>东方民丰回报赢安混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>28.31</t>
+          <t>28.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>675093</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得祥逸债券C</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1116,96 +1122,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>